--- a/SchedulingData/dynamic15/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.4</v>
+        <v>95.7</v>
       </c>
       <c r="E2" t="n">
-        <v>26.34</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="3">
@@ -485,36 +485,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.2</v>
+        <v>55.78</v>
       </c>
       <c r="E3" t="n">
-        <v>25.08</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.36</v>
+        <v>52.9</v>
       </c>
       <c r="E4" t="n">
-        <v>26.024</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="5">
@@ -538,97 +538,97 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47.78</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>89.94</v>
+        <v>43.2</v>
       </c>
       <c r="E6" t="n">
-        <v>23.816</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.36</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>135.74</v>
+        <v>88.5</v>
       </c>
       <c r="E7" t="n">
-        <v>22.216</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>135.74</v>
+        <v>52.9</v>
       </c>
       <c r="D8" t="n">
-        <v>201.84</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>17.236</v>
+        <v>23.624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>56.2</v>
+        <v>47.78</v>
       </c>
       <c r="D9" t="n">
-        <v>132.7</v>
+        <v>99.5</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53.4</v>
+        <v>88.5</v>
       </c>
       <c r="D10" t="n">
-        <v>106.08</v>
+        <v>143.98</v>
       </c>
       <c r="E10" t="n">
-        <v>22.692</v>
+        <v>22.372</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>35.08</v>
+        <v>147.58</v>
       </c>
       <c r="E11" t="n">
-        <v>27.192</v>
+        <v>19.672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>132.7</v>
+        <v>99.5</v>
       </c>
       <c r="D12" t="n">
-        <v>192.6</v>
+        <v>163.16</v>
       </c>
       <c r="E12" t="n">
-        <v>18.64</v>
+        <v>19.644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>55.78</v>
       </c>
       <c r="D13" t="n">
-        <v>40.46</v>
+        <v>112.18</v>
       </c>
       <c r="E13" t="n">
-        <v>27.144</v>
+        <v>23.072</v>
       </c>
     </row>
     <row r="14">
@@ -694,131 +694,131 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35.08</v>
+        <v>147.58</v>
       </c>
       <c r="D14" t="n">
-        <v>105.26</v>
+        <v>204.96</v>
       </c>
       <c r="E14" t="n">
-        <v>24.244</v>
+        <v>15.564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>192.6</v>
+        <v>163.16</v>
       </c>
       <c r="D15" t="n">
-        <v>253.7</v>
+        <v>210.42</v>
       </c>
       <c r="E15" t="n">
-        <v>16.12</v>
+        <v>17.048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40.46</v>
+        <v>204.96</v>
       </c>
       <c r="D16" t="n">
-        <v>104.4</v>
+        <v>253.8</v>
       </c>
       <c r="E16" t="n">
-        <v>23.84</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>201.84</v>
+        <v>143.98</v>
       </c>
       <c r="D17" t="n">
-        <v>254.44</v>
+        <v>204.84</v>
       </c>
       <c r="E17" t="n">
-        <v>13.596</v>
+        <v>18.396</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>253.7</v>
+        <v>204.84</v>
       </c>
       <c r="D18" t="n">
-        <v>316.08</v>
+        <v>277.08</v>
       </c>
       <c r="E18" t="n">
-        <v>12.012</v>
+        <v>15.272</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>254.44</v>
+        <v>112.18</v>
       </c>
       <c r="D19" t="n">
-        <v>311.88</v>
+        <v>167.7</v>
       </c>
       <c r="E19" t="n">
-        <v>10.472</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>104.4</v>
+        <v>43.2</v>
       </c>
       <c r="D20" t="n">
-        <v>144.68</v>
+        <v>83.2</v>
       </c>
       <c r="E20" t="n">
-        <v>20.452</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="21">
@@ -827,264 +827,264 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>105.26</v>
+        <v>253.8</v>
       </c>
       <c r="D21" t="n">
-        <v>157.18</v>
+        <v>310.32</v>
       </c>
       <c r="E21" t="n">
-        <v>20.692</v>
+        <v>8.268000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>106.08</v>
+        <v>167.7</v>
       </c>
       <c r="D22" t="n">
-        <v>147.98</v>
+        <v>211.56</v>
       </c>
       <c r="E22" t="n">
-        <v>20.612</v>
+        <v>16.904</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>144.68</v>
+        <v>211.56</v>
       </c>
       <c r="D23" t="n">
-        <v>221</v>
+        <v>247.88</v>
       </c>
       <c r="E23" t="n">
-        <v>16.42</v>
+        <v>13.912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>147.98</v>
+        <v>310.32</v>
       </c>
       <c r="D24" t="n">
-        <v>201.76</v>
+        <v>368.32</v>
       </c>
       <c r="E24" t="n">
-        <v>17.364</v>
+        <v>4.608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>89.94</v>
+        <v>83.2</v>
       </c>
       <c r="D25" t="n">
-        <v>151.08</v>
+        <v>145.8</v>
       </c>
       <c r="E25" t="n">
-        <v>19.812</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>157.18</v>
+        <v>145.8</v>
       </c>
       <c r="D26" t="n">
-        <v>210.34</v>
+        <v>205.4</v>
       </c>
       <c r="E26" t="n">
-        <v>16.996</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>201.76</v>
+        <v>247.88</v>
       </c>
       <c r="D27" t="n">
-        <v>282.68</v>
+        <v>307.18</v>
       </c>
       <c r="E27" t="n">
-        <v>14.372</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>282.68</v>
+        <v>307.18</v>
       </c>
       <c r="D28" t="n">
-        <v>354.68</v>
+        <v>373.78</v>
       </c>
       <c r="E28" t="n">
-        <v>11.252</v>
+        <v>7.032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>151.08</v>
+        <v>205.4</v>
       </c>
       <c r="D29" t="n">
-        <v>214.84</v>
+        <v>271.4</v>
       </c>
       <c r="E29" t="n">
-        <v>16.536</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>221</v>
+        <v>210.42</v>
       </c>
       <c r="D30" t="n">
-        <v>269.7</v>
+        <v>275.32</v>
       </c>
       <c r="E30" t="n">
-        <v>13.18</v>
+        <v>13.668</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>210.34</v>
+        <v>275.32</v>
       </c>
       <c r="D31" t="n">
-        <v>275.86</v>
+        <v>339.24</v>
       </c>
       <c r="E31" t="n">
-        <v>14.084</v>
+        <v>9.875999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>354.68</v>
+        <v>368.32</v>
       </c>
       <c r="D32" t="n">
-        <v>434.78</v>
+        <v>411.54</v>
       </c>
       <c r="E32" t="n">
-        <v>6.332</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>269.7</v>
+        <v>411.54</v>
       </c>
       <c r="D33" t="n">
-        <v>322.84</v>
+        <v>490.41</v>
       </c>
       <c r="E33" t="n">
-        <v>10.476</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>311.88</v>
+        <v>277.08</v>
       </c>
       <c r="D34" t="n">
-        <v>398.66</v>
+        <v>348.58</v>
       </c>
       <c r="E34" t="n">
-        <v>6.884</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>434.78</v>
+        <v>271.4</v>
       </c>
       <c r="D35" t="n">
-        <v>516.38</v>
+        <v>330.08</v>
       </c>
       <c r="E35" t="n">
-        <v>1.772</v>
+        <v>8.792</v>
       </c>
     </row>
     <row r="36">
@@ -1112,55 +1112,55 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>516.38</v>
+        <v>330.08</v>
       </c>
       <c r="D36" t="n">
-        <v>594.74</v>
+        <v>387.76</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>5.144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>214.84</v>
+        <v>95.7</v>
       </c>
       <c r="D37" t="n">
-        <v>263.6</v>
+        <v>140.88</v>
       </c>
       <c r="E37" t="n">
-        <v>13.28</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>316.08</v>
+        <v>348.58</v>
       </c>
       <c r="D38" t="n">
-        <v>364.54</v>
+        <v>421.72</v>
       </c>
       <c r="E38" t="n">
-        <v>9.276</v>
+        <v>9.488</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>398.66</v>
+        <v>140.88</v>
       </c>
       <c r="D39" t="n">
-        <v>461.66</v>
+        <v>196.48</v>
       </c>
       <c r="E39" t="n">
-        <v>2.204</v>
+        <v>17.772</v>
       </c>
     </row>
     <row r="40">
@@ -1188,302 +1188,302 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>322.84</v>
+        <v>421.72</v>
       </c>
       <c r="D40" t="n">
-        <v>393.22</v>
+        <v>470.68</v>
       </c>
       <c r="E40" t="n">
-        <v>7.068</v>
+        <v>6.212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>393.22</v>
+        <v>196.48</v>
       </c>
       <c r="D41" t="n">
-        <v>458.02</v>
+        <v>263.66</v>
       </c>
       <c r="E41" t="n">
-        <v>3.688</v>
+        <v>14.184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>458.02</v>
+        <v>490.41</v>
       </c>
       <c r="D42" t="n">
-        <v>516.28</v>
+        <v>547.27</v>
       </c>
       <c r="E42" t="n">
-        <v>0.952</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>516.28</v>
+        <v>263.66</v>
       </c>
       <c r="D43" t="n">
-        <v>596.1799999999999</v>
+        <v>297.42</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>11.448</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>275.86</v>
+        <v>470.68</v>
       </c>
       <c r="D44" t="n">
-        <v>356.36</v>
+        <v>549.72</v>
       </c>
       <c r="E44" t="n">
-        <v>10.164</v>
+        <v>2.908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>356.36</v>
+        <v>373.78</v>
       </c>
       <c r="D45" t="n">
-        <v>425.32</v>
+        <v>446.74</v>
       </c>
       <c r="E45" t="n">
-        <v>6.908</v>
+        <v>3.336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>461.66</v>
+        <v>339.24</v>
       </c>
       <c r="D46" t="n">
-        <v>538.95</v>
+        <v>395.86</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>6.324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>538.95</v>
+        <v>395.86</v>
       </c>
       <c r="D47" t="n">
-        <v>579.55</v>
+        <v>450.14</v>
       </c>
       <c r="E47" t="n">
-        <v>27.14</v>
+        <v>2.516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>579.55</v>
+        <v>547.27</v>
       </c>
       <c r="D48" t="n">
-        <v>637.05</v>
+        <v>588.67</v>
       </c>
       <c r="E48" t="n">
-        <v>24.98</v>
+        <v>24.464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>263.6</v>
+        <v>297.42</v>
       </c>
       <c r="D49" t="n">
-        <v>332.92</v>
+        <v>348.76</v>
       </c>
       <c r="E49" t="n">
-        <v>9.488</v>
+        <v>7.444</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>425.32</v>
+        <v>446.74</v>
       </c>
       <c r="D50" t="n">
-        <v>479.16</v>
+        <v>501.3</v>
       </c>
       <c r="E50" t="n">
-        <v>3.644</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>594.74</v>
+        <v>501.3</v>
       </c>
       <c r="D51" t="n">
-        <v>640.54</v>
+        <v>577.24</v>
       </c>
       <c r="E51" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>364.54</v>
+        <v>348.76</v>
       </c>
       <c r="D52" t="n">
-        <v>420.26</v>
+        <v>412.06</v>
       </c>
       <c r="E52" t="n">
-        <v>5.324</v>
+        <v>4.204</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>596.1799999999999</v>
+        <v>412.06</v>
       </c>
       <c r="D53" t="n">
-        <v>659.08</v>
+        <v>459.66</v>
       </c>
       <c r="E53" t="n">
-        <v>26.88</v>
+        <v>2.044</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>332.92</v>
+        <v>387.76</v>
       </c>
       <c r="D54" t="n">
-        <v>422.02</v>
+        <v>459.46</v>
       </c>
       <c r="E54" t="n">
-        <v>4.688</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>422.02</v>
+        <v>459.46</v>
       </c>
       <c r="D55" t="n">
-        <v>501.84</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>1.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -1492,14 +1492,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>501.84</v>
+        <v>450.14</v>
       </c>
       <c r="D56" t="n">
-        <v>565.29</v>
+        <v>541.61</v>
       </c>
       <c r="E56" t="n">
         <v>30</v>
@@ -1507,40 +1507,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>479.16</v>
+        <v>541.61</v>
       </c>
       <c r="D57" t="n">
-        <v>527.38</v>
+        <v>577.73</v>
       </c>
       <c r="E57" t="n">
-        <v>0.452</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>527.38</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>608.1799999999999</v>
+        <v>615.29</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="59">
@@ -1549,74 +1549,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>420.26</v>
+        <v>577.24</v>
       </c>
       <c r="D59" t="n">
-        <v>491.66</v>
+        <v>633.4400000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>1.804</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>491.66</v>
+        <v>588.67</v>
       </c>
       <c r="D60" t="n">
-        <v>579.55</v>
+        <v>638.05</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>pond7</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>565.29</v>
-      </c>
-      <c r="D61" t="n">
-        <v>627.51</v>
-      </c>
-      <c r="E61" t="n">
-        <v>25.968</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>pond45</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>579.55</v>
-      </c>
-      <c r="D62" t="n">
-        <v>631.41</v>
-      </c>
-      <c r="E62" t="n">
-        <v>26.984</v>
+        <v>21.656</v>
       </c>
     </row>
   </sheetData>
